--- a/Technology/Software/Qualys.xlsx
+++ b/Technology/Software/Qualys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62F6A80-BFEA-A647-9967-DD344CAA601A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FA26B4-6290-FD4E-A1D8-49CC9C4B3970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1583,7 +1583,7 @@
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1724,9 +1724,11 @@
     <v>Powered by Refinitiv</v>
     <v>165.03</v>
     <v>101.1</v>
-    <v>0.52569999999999995</v>
-    <v>-1.73</v>
-    <v>-1.0597000000000001E-2</v>
+    <v>0.52349999999999997</v>
+    <v>-5.74</v>
+    <v>-3.5535000000000004E-2</v>
+    <v>-0.79</v>
+    <v>-5.071E-3</v>
     <v>USD</v>
     <v>Qualys, Inc. is a provider of cloud-based information technology (IT), security and compliance solutions. Its cloud-based IT, security and compliance solutions enables organizations to identify security risks to their IT infrastructures, help protect their IT systems and applications from cyber-attacks. The Company delivers its solutions through its Qualys Cloud Platform. The Qualys Cloud Platform leverages a single agent to continuously deliver critical security intelligence while enabling enterprises to automate the full spectrum of vulnerability detection, compliance, and protection for IT systems, workloads and web applications across on premises, endpoints, servers, public and private clouds, containers, and mobile devices.</v>
     <v>2140</v>
@@ -1734,24 +1736,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>919 E. Hillsdale Blvd., FOSTER CITY, CA, 94404 US</v>
-    <v>164.5</v>
+    <v>161.49</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.972003645315</v>
+    <v>45219.953746550782</v>
     <v>0</v>
-    <v>161.12</v>
-    <v>5930100667</v>
+    <v>154.44999999999999</v>
+    <v>5719373385</v>
     <v>QUALYS, INC.</v>
     <v>QUALYS, INC.</v>
-    <v>164.5</v>
+    <v>161.49</v>
     <v>51.128399999999999</v>
-    <v>163.26</v>
     <v>161.53</v>
+    <v>155.79</v>
+    <v>155</v>
     <v>36712070</v>
     <v>QLYS</v>
     <v>QUALYS, INC. (XNAS:QLYS)</v>
-    <v>70</v>
-    <v>342056</v>
+    <v>426823</v>
+    <v>341998</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -1783,6 +1786,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1803,6 +1808,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1819,7 +1825,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1830,13 +1836,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1902,13 +1911,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1953,6 +1968,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1960,6 +1978,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -15664,7 +15685,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15681,7 +15702,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5930100667</v>
+        <v>5719373385</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>201</v>
@@ -15709,7 +15730,7 @@
       </c>
       <c r="I3" s="41">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>6440359775.3013792</v>
+        <v>6392217258.5140095</v>
       </c>
       <c r="J3" s="50" t="s">
         <v>205</v>
@@ -15754,14 +15775,14 @@
       </c>
       <c r="I4" s="48">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>5645583086.8266983</v>
+        <v>5603065137.9639311</v>
       </c>
       <c r="J4" s="90" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="40" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.0597000000000001E-2</v>
+        <v>-3.5535000000000004E-2</v>
       </c>
       <c r="L4" s="89" t="s">
         <v>249</v>
@@ -15804,14 +15825,14 @@
       </c>
       <c r="I5" s="48">
         <f>I4+G5-G6</f>
-        <v>5960086086.8266983</v>
+        <v>5917568137.9639311</v>
       </c>
       <c r="J5" s="90" t="s">
         <v>217</v>
       </c>
       <c r="K5" s="87" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>161.53</v>
+        <v>155.79</v>
       </c>
       <c r="L5" s="88" t="s">
         <v>218</v>
@@ -15829,7 +15850,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="53">
         <f>O20/F10</f>
-        <v>10.704152828519856</v>
+        <v>10.323778673285199</v>
       </c>
       <c r="B6" s="88" t="s">
         <v>220</v>
@@ -15857,14 +15878,14 @@
       </c>
       <c r="I6" s="54">
         <f>N25</f>
-        <v>6.7016286269867151E-2</v>
+        <v>6.7332728857045457E-2</v>
       </c>
       <c r="J6" s="91" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="55">
         <f>I5/G4</f>
-        <v>171.39769981093204</v>
+        <v>170.17498615720405</v>
       </c>
       <c r="L6" s="56" t="s">
         <v>224</v>
@@ -15882,14 +15903,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59">
         <f>O20/F12</f>
-        <v>34.477329459302325</v>
+        <v>33.252170843023258</v>
       </c>
       <c r="B7" s="106" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="60">
         <f>F14/O21</f>
-        <v>3.7218037736675119E-2</v>
+        <v>3.8581035498778324E-2</v>
       </c>
       <c r="D7" s="108" t="s">
         <v>227</v>
@@ -15916,7 +15937,7 @@
       </c>
       <c r="K7" s="94">
         <f>K6/K5-1</f>
-        <v>6.1088960632279088E-2</v>
+        <v>9.2335747847769767E-2</v>
       </c>
       <c r="L7" s="64" t="s">
         <v>230</v>
@@ -16221,7 +16242,7 @@
       </c>
       <c r="O14" s="76">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
       <c r="P14" s="44"/>
     </row>
@@ -16271,7 +16292,7 @@
       </c>
       <c r="O15" s="80" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.52569999999999995</v>
+        <v>0.52349999999999997</v>
       </c>
       <c r="P15" s="44"/>
     </row>
@@ -16326,7 +16347,7 @@
       </c>
       <c r="O17" s="83">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.7408986000000004E-2</v>
+        <v>6.7741820000000008E-2</v>
       </c>
       <c r="P17" s="44"/>
     </row>
@@ -16401,7 +16422,7 @@
       </c>
       <c r="O20" s="84" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>5930100667</v>
+        <v>5719373385</v>
       </c>
       <c r="P20" s="44"/>
     </row>
@@ -16423,7 +16444,7 @@
       </c>
       <c r="O21" s="84">
         <f>O19+O20</f>
-        <v>5964849667</v>
+        <v>5754122385</v>
       </c>
       <c r="P21" s="44"/>
     </row>
@@ -16446,7 +16467,7 @@
       </c>
       <c r="O22" s="85">
         <f>(O19/O21)</f>
-        <v>5.8256287987014576E-3</v>
+        <v>6.0389747862479642E-3</v>
       </c>
       <c r="P22" s="44"/>
     </row>
@@ -16469,7 +16490,7 @@
       </c>
       <c r="O23" s="86">
         <f>O20/O21</f>
-        <v>0.99417437120129859</v>
+        <v>0.99396102521375207</v>
       </c>
       <c r="P23" s="44"/>
     </row>
@@ -16509,7 +16530,7 @@
       <c r="M25" s="70"/>
       <c r="N25" s="111">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.7016286269867151E-2</v>
+        <v>6.7332728857045457E-2</v>
       </c>
       <c r="O25" s="112"/>
       <c r="P25" s="44"/>

--- a/Technology/Software/Qualys.xlsx
+++ b/Technology/Software/Qualys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FA26B4-6290-FD4E-A1D8-49CC9C4B3970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0106EF62-6B07-BB4B-826E-1FBC785200FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="250">
   <si>
     <t>2010 Y</t>
   </si>
@@ -823,7 +823,7 @@
     <t>WACC</t>
   </si>
   <si>
-    <t>Daily Change %</t>
+    <t>Dividend Yield</t>
   </si>
 </sst>
 </file>
@@ -1332,9 +1332,6 @@
     <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1428,9 +1425,6 @@
     <xf numFmtId="10" fontId="19" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1445,12 +1439,6 @@
     </xf>
     <xf numFmtId="9" fontId="26" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="14"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -1494,6 +1482,21 @@
     <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1522,13 +1525,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1558,13 +1558,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -1580,14 +1582,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -1597,6 +1599,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1724,11 +1728,11 @@
     <v>Powered by Refinitiv</v>
     <v>165.03</v>
     <v>101.1</v>
-    <v>0.52349999999999997</v>
-    <v>-5.74</v>
-    <v>-3.5535000000000004E-2</v>
-    <v>-0.79</v>
-    <v>-5.071E-3</v>
+    <v>0.52590000000000003</v>
+    <v>0.04</v>
+    <v>2.6289999999999999E-4</v>
+    <v>-0.26</v>
+    <v>-1.7080000000000001E-3</v>
     <v>USD</v>
     <v>Qualys, Inc. is a provider of cloud-based information technology (IT), security and compliance solutions. Its cloud-based IT, security and compliance solutions enables organizations to identify security risks to their IT infrastructures, help protect their IT systems and applications from cyber-attacks. The Company delivers its solutions through its Qualys Cloud Platform. The Qualys Cloud Platform leverages a single agent to continuously deliver critical security intelligence while enabling enterprises to automate the full spectrum of vulnerability detection, compliance, and protection for IT systems, workloads and web applications across on premises, endpoints, servers, public and private clouds, containers, and mobile devices.</v>
     <v>2140</v>
@@ -1736,25 +1740,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>919 E. Hillsdale Blvd., FOSTER CITY, CA, 94404 US</v>
-    <v>161.49</v>
+    <v>153.435</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45219.953746550782</v>
+    <v>45226.843137753909</v>
     <v>0</v>
-    <v>154.44999999999999</v>
-    <v>5719373385</v>
+    <v>150.19999999999999</v>
+    <v>5587945000</v>
     <v>QUALYS, INC.</v>
     <v>QUALYS, INC.</v>
-    <v>161.49</v>
-    <v>51.128399999999999</v>
-    <v>161.53</v>
-    <v>155.79</v>
-    <v>155</v>
+    <v>151.99</v>
+    <v>48.178400000000003</v>
+    <v>152.16999999999999</v>
+    <v>152.21</v>
+    <v>151.94999999999999</v>
     <v>36712070</v>
     <v>QLYS</v>
     <v>QUALYS, INC. (XNAS:QLYS)</v>
-    <v>426823</v>
-    <v>341998</v>
+    <v>233625</v>
+    <v>318440</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -1919,9 +1923,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2366,9 +2370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A190" sqref="A190:XFD190"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10020,68 +10024,68 @@
         <v>197</v>
       </c>
       <c r="B129" s="10"/>
-      <c r="C129" s="11">
+      <c r="C129" s="21">
         <f>(C128/B128)-1</f>
         <v>0</v>
       </c>
-      <c r="D129" s="11">
+      <c r="D129" s="21">
         <f>(D128/C128)-1</f>
         <v>4.5557724684730738E-2</v>
       </c>
-      <c r="E129" s="11">
+      <c r="E129" s="21">
         <f>(E128/D128)-1</f>
         <v>3.040325107285069E-2</v>
       </c>
-      <c r="F129" s="11">
+      <c r="F129" s="21">
         <f t="shared" ref="F129:N129" si="6">(F128/E128)-1</f>
         <v>3.7651729486730012E-2</v>
       </c>
-      <c r="G129" s="11">
+      <c r="G129" s="21">
         <f t="shared" si="6"/>
         <v>2.4419212970301363E-2</v>
       </c>
-      <c r="H129" s="11">
+      <c r="H129" s="21">
         <f t="shared" si="6"/>
         <v>4.1446616120916602E-2</v>
       </c>
-      <c r="I129" s="11">
+      <c r="I129" s="21">
         <f t="shared" si="6"/>
         <v>7.6926311293593619E-2</v>
       </c>
-      <c r="J129" s="11">
+      <c r="J129" s="21">
         <f t="shared" si="6"/>
         <v>1.0801485471428673E-2</v>
       </c>
-      <c r="K129" s="11">
+      <c r="K129" s="21">
         <f t="shared" si="6"/>
         <v>3.3637802289241403E-3</v>
       </c>
-      <c r="L129" s="11">
+      <c r="L129" s="21">
         <f t="shared" si="6"/>
         <v>2.717832237000728E-3</v>
       </c>
-      <c r="M129" s="11">
+      <c r="M129" s="21">
         <f t="shared" si="6"/>
         <v>-3.5835783379294384E-3</v>
       </c>
-      <c r="N129" s="11">
+      <c r="N129" s="21">
         <f t="shared" si="6"/>
         <v>-4.474330128860704E-2</v>
       </c>
-      <c r="O129" s="11">
+      <c r="O129" s="21">
         <f>(O128/N128)-1</f>
         <v>-1.1482254697286032E-2</v>
       </c>
-      <c r="P129" s="11"/>
-      <c r="Q129" s="11">
+      <c r="P129" s="21"/>
+      <c r="Q129" s="21">
         <f>(Q128/P128)-1</f>
         <v>-1.9987409505823117E-2</v>
       </c>
-      <c r="R129" s="11">
+      <c r="R129" s="21">
         <f>(R128/Q128)-1</f>
         <v>-1.1482254697286032E-2</v>
       </c>
-      <c r="S129" s="11">
+      <c r="S129" s="21">
         <f>(S128/R128)-1</f>
         <v>0</v>
       </c>
@@ -12588,8 +12592,8 @@
       <c r="N172" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O172" s="5" t="s">
-        <v>24</v>
+      <c r="O172" s="5">
+        <v>0</v>
       </c>
       <c r="P172" s="4" t="s">
         <v>24</v>
@@ -15675,7 +15679,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:S1 A2:S2 A4:S7 A15:S16 A19:S20 A37:S95 A9:S11 A13:S13 A191:S195 A105:D105 K105:S105 A97:S104 A96:E96 J96:S96 A106:S128 A130:S142 A144:S188 A22:S33 A21:N21 P21:S21" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:S1 A2:S2 A4:S7 A15:S16 A19:S20 A37:S95 A9:S11 A13:S13 A191:S195 A105:D105 K105:S105 A97:S104 A96:E96 J96:S96 A106:S128 A130:S142 A144:S171 A22:S33 A21:N21 P21:S21 A173:S188 A172:N172 P172:S172" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -15685,7 +15689,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15693,16 +15697,16 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="e" vm="1">
+    <row r="1" spans="1:16" s="114" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="114" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:16" s="114" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5719373385</v>
+        <v>5587945000</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>201</v>
@@ -15718,19 +15722,19 @@
         <f>SUM(C11:E11)/3</f>
         <v>0.15081804477364327</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="87" t="s">
         <v>203</v>
       </c>
       <c r="G3" s="40">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-1.0561316790152903E-2</v>
       </c>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="87" t="s">
         <v>204</v>
       </c>
       <c r="I3" s="41">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>6392217258.5140095</v>
+        <v>6484423015.9256439</v>
       </c>
       <c r="J3" s="50" t="s">
         <v>205</v>
@@ -15738,10 +15742,10 @@
       <c r="K3" s="42"/>
       <c r="L3" s="43"/>
       <c r="M3" s="44"/>
-      <c r="N3" s="114" t="s">
+      <c r="N3" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="115"/>
+      <c r="O3" s="116"/>
       <c r="P3" s="44"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -15749,49 +15753,49 @@
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>314503000</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="86" t="s">
         <v>207</v>
       </c>
       <c r="C4" s="46">
         <f>Financials!O17*0.01</f>
         <v>0.27090000000000003</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="86" t="s">
         <v>208</v>
       </c>
       <c r="E4" s="46">
         <f>SUM(C13:E13)/3</f>
         <v>0.20582668056839573</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="88" t="s">
         <v>209</v>
       </c>
       <c r="G4" s="47">
         <f>A5*(1+(5*G3))</f>
         <v>34773430.993538655</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="89" t="s">
         <v>210</v>
       </c>
       <c r="I4" s="48">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>5603065137.9639311</v>
-      </c>
-      <c r="J4" s="90" t="s">
+        <v>5684498743.4842043</v>
+      </c>
+      <c r="J4" s="88" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="40" cm="1">
-        <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-3.5535000000000004E-2</v>
-      </c>
-      <c r="L4" s="89" t="s">
+      <c r="K4" s="109">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="87" t="s">
         <v>249</v>
       </c>
       <c r="M4" s="44"/>
-      <c r="N4" s="116" t="s">
+      <c r="N4" s="117" t="s">
         <v>212</v>
       </c>
-      <c r="O4" s="117"/>
+      <c r="O4" s="118"/>
       <c r="P4" s="44"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -15799,42 +15803,42 @@
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>36712070</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="86" t="s">
         <v>213</v>
       </c>
       <c r="C5" s="49">
         <f>Financials!O34*0.01</f>
         <v>0.2298</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="86" t="s">
         <v>214</v>
       </c>
       <c r="E5" s="46">
         <f>SUM(C15:E15)/3</f>
         <v>9.754758650968183E-2</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="88" t="s">
         <v>215</v>
       </c>
       <c r="G5" s="47">
         <f>Financials!O56</f>
         <v>349252000</v>
       </c>
-      <c r="H5" s="91" t="s">
+      <c r="H5" s="89" t="s">
         <v>216</v>
       </c>
       <c r="I5" s="48">
         <f>I4+G5-G6</f>
-        <v>5917568137.9639311</v>
-      </c>
-      <c r="J5" s="90" t="s">
+        <v>5999001743.4842043</v>
+      </c>
+      <c r="J5" s="88" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="87" cm="1">
+      <c r="K5" s="107" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>155.79</v>
-      </c>
-      <c r="L5" s="88" t="s">
+        <v>152.21</v>
+      </c>
+      <c r="L5" s="50" t="s">
         <v>218</v>
       </c>
       <c r="M5" s="44"/>
@@ -15850,110 +15854,110 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="53">
         <f>O20/F10</f>
-        <v>10.323778673285199</v>
-      </c>
-      <c r="B6" s="88" t="s">
+        <v>10.086543321299638</v>
+      </c>
+      <c r="B6" s="86" t="s">
         <v>220</v>
       </c>
       <c r="C6" s="46">
         <f>Financials!O190</f>
         <v>0.35507207678017633</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="103" t="s">
         <v>200</v>
       </c>
       <c r="E6" s="46">
         <f>Financials!O33/Financials!O126</f>
         <v>0.43489231746673501</v>
       </c>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="86" t="s">
         <v>221</v>
       </c>
       <c r="G6" s="48">
         <f>Financials!O96+Financials!O105</f>
         <v>34749000</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="89" t="s">
         <v>222</v>
       </c>
       <c r="I6" s="54">
         <f>N25</f>
-        <v>6.7332728857045457E-2</v>
-      </c>
-      <c r="J6" s="91" t="s">
+        <v>6.6730775326564989E-2</v>
+      </c>
+      <c r="J6" s="89" t="s">
         <v>223</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="108">
         <f>I5/G4</f>
-        <v>170.17498615720405</v>
-      </c>
-      <c r="L6" s="56" t="s">
+        <v>172.51682022975803</v>
+      </c>
+      <c r="L6" s="55" t="s">
         <v>224</v>
       </c>
       <c r="M6" s="44"/>
-      <c r="N6" s="57" t="s">
+      <c r="N6" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="O6" s="58">
+      <c r="O6" s="57">
         <f>Financials!O96</f>
         <v>11877000</v>
       </c>
       <c r="P6" s="44"/>
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59">
+      <c r="A7" s="58">
         <f>O20/F12</f>
-        <v>33.252170843023258</v>
-      </c>
-      <c r="B7" s="106" t="s">
+        <v>32.488052325581393</v>
+      </c>
+      <c r="B7" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="60">
-        <f>F14/O21</f>
-        <v>3.8581035498778324E-2</v>
-      </c>
-      <c r="D7" s="108" t="s">
+      <c r="C7" s="59">
+        <f>F14/A3</f>
+        <v>3.9728379574244202E-2</v>
+      </c>
+      <c r="D7" s="104" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="60">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.34165899533946825</v>
       </c>
-      <c r="F7" s="106" t="s">
+      <c r="F7" s="102" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="61">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>0.12543950212621563</v>
       </c>
-      <c r="H7" s="105" t="s">
+      <c r="H7" s="101" t="s">
         <v>228</v>
       </c>
-      <c r="I7" s="63">
+      <c r="I7" s="62">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="92" t="s">
+      <c r="J7" s="90" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="94">
+      <c r="K7" s="105">
         <f>K6/K5-1</f>
-        <v>9.2335747847769767E-2</v>
-      </c>
-      <c r="L7" s="64" t="s">
+        <v>0.13341318066985086</v>
+      </c>
+      <c r="L7" s="63" t="s">
         <v>230</v>
       </c>
       <c r="M7" s="44"/>
-      <c r="N7" s="57" t="s">
+      <c r="N7" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="O7" s="58">
+      <c r="O7" s="57">
         <f>Financials!O105</f>
         <v>22872000</v>
       </c>
       <c r="P7" s="44"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
@@ -15966,409 +15970,409 @@
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
       <c r="M8" s="44"/>
-      <c r="N8" s="66" t="s">
+      <c r="N8" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="O8" s="67">
+      <c r="O8" s="66">
         <f>O5/(O6+O7)</f>
         <v>0</v>
       </c>
       <c r="P8" s="44"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="95">
+      <c r="A9" s="67"/>
+      <c r="B9" s="91">
         <v>2019</v>
       </c>
-      <c r="C9" s="95">
+      <c r="C9" s="91">
         <v>2020</v>
       </c>
-      <c r="D9" s="95">
+      <c r="D9" s="91">
         <v>2021</v>
       </c>
-      <c r="E9" s="95">
+      <c r="E9" s="91">
         <v>2022</v>
       </c>
-      <c r="F9" s="99">
+      <c r="F9" s="95">
         <v>2023</v>
       </c>
-      <c r="G9" s="100">
+      <c r="G9" s="96">
         <v>2024</v>
       </c>
-      <c r="H9" s="100">
+      <c r="H9" s="96">
         <v>2025</v>
       </c>
-      <c r="I9" s="100">
+      <c r="I9" s="96">
         <v>2026</v>
       </c>
-      <c r="J9" s="100">
+      <c r="J9" s="96">
         <v>2027</v>
       </c>
-      <c r="K9" s="69"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="57" t="s">
+      <c r="K9" s="68"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="O9" s="58">
+      <c r="O9" s="57">
         <f>Financials!O25</f>
         <v>30798000</v>
       </c>
       <c r="P9" s="44"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="70" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="96">
+      <c r="B10" s="92">
         <v>321607000</v>
       </c>
-      <c r="C10" s="96">
+      <c r="C10" s="92">
         <v>362963000</v>
       </c>
-      <c r="D10" s="96">
+      <c r="D10" s="92">
         <v>411172000</v>
       </c>
-      <c r="E10" s="96">
+      <c r="E10" s="92">
         <v>489723000</v>
       </c>
-      <c r="F10" s="101">
+      <c r="F10" s="97">
         <v>554000000</v>
       </c>
-      <c r="G10" s="96">
+      <c r="G10" s="92">
         <v>621500000</v>
       </c>
-      <c r="H10" s="96">
+      <c r="H10" s="92">
         <v>690000000</v>
       </c>
-      <c r="I10" s="96">
+      <c r="I10" s="92">
         <v>783400000</v>
       </c>
-      <c r="J10" s="96">
+      <c r="J10" s="92">
         <v>866000000</v>
       </c>
-      <c r="K10" s="72" t="s">
+      <c r="K10" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="N10" s="57" t="s">
+      <c r="N10" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="O10" s="58">
+      <c r="O10" s="57">
         <f>Financials!O24</f>
         <v>151271000</v>
       </c>
       <c r="P10" s="44"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="73"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97">
+      <c r="A11" s="72"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.12859172841387156</v>
       </c>
-      <c r="D11" s="97">
+      <c r="D11" s="93">
         <f t="shared" si="0"/>
         <v>0.13282070073258145</v>
       </c>
-      <c r="E11" s="97">
+      <c r="E11" s="93">
         <f t="shared" si="0"/>
         <v>0.19104170517447683</v>
       </c>
-      <c r="F11" s="102">
+      <c r="F11" s="98">
         <f t="shared" si="0"/>
         <v>0.13125174843738185</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="93">
         <f t="shared" si="0"/>
         <v>0.12184115523465699</v>
       </c>
-      <c r="H11" s="97">
+      <c r="H11" s="93">
         <f t="shared" si="0"/>
         <v>0.11021721641190663</v>
       </c>
-      <c r="I11" s="97">
+      <c r="I11" s="93">
         <f t="shared" si="0"/>
         <v>0.1353623188405797</v>
       </c>
-      <c r="J11" s="97">
+      <c r="J11" s="93">
         <f t="shared" si="0"/>
         <v>0.10543783507786575</v>
       </c>
-      <c r="K11" s="75">
+      <c r="K11" s="74">
         <f>SUM(F11:J11)/5</f>
         <v>0.12082205480047818</v>
       </c>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="57" t="s">
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="O11" s="76">
+      <c r="O11" s="75">
         <f>O9/O10</f>
         <v>0.20359487277799446</v>
       </c>
       <c r="P11" s="44"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="96">
+      <c r="B12" s="92">
         <v>69336000</v>
       </c>
-      <c r="C12" s="96">
+      <c r="C12" s="92">
         <v>91572000</v>
       </c>
-      <c r="D12" s="96">
+      <c r="D12" s="92">
         <v>70960000</v>
       </c>
-      <c r="E12" s="96">
+      <c r="E12" s="92">
         <v>107992000</v>
       </c>
-      <c r="F12" s="101">
+      <c r="F12" s="97">
         <v>172000000</v>
       </c>
-      <c r="G12" s="96">
+      <c r="G12" s="92">
         <v>184000000</v>
       </c>
-      <c r="H12" s="96">
+      <c r="H12" s="92">
         <v>200000000</v>
       </c>
-      <c r="I12" s="96">
+      <c r="I12" s="92">
         <v>264000000</v>
       </c>
-      <c r="J12" s="96">
+      <c r="J12" s="92">
         <v>301000000</v>
       </c>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="77" t="s">
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="O12" s="78">
+      <c r="O12" s="77">
         <f>O8*(1-O11)</f>
         <v>0</v>
       </c>
       <c r="P12" s="44"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97">
+      <c r="A13" s="72"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.32069920387677397</v>
       </c>
-      <c r="D13" s="97">
+      <c r="D13" s="93">
         <f t="shared" si="1"/>
         <v>-0.22509063905997462</v>
       </c>
-      <c r="E13" s="97">
+      <c r="E13" s="93">
         <f t="shared" si="1"/>
         <v>0.52187147688838786</v>
       </c>
-      <c r="F13" s="102">
+      <c r="F13" s="98">
         <f t="shared" si="1"/>
         <v>0.59271057115341885</v>
       </c>
-      <c r="G13" s="97">
+      <c r="G13" s="93">
         <f t="shared" si="1"/>
         <v>6.9767441860465018E-2</v>
       </c>
-      <c r="H13" s="97">
+      <c r="H13" s="93">
         <f t="shared" si="1"/>
         <v>8.6956521739130377E-2</v>
       </c>
-      <c r="I13" s="97">
+      <c r="I13" s="93">
         <f t="shared" si="1"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="J13" s="97">
+      <c r="J13" s="93">
         <f t="shared" si="1"/>
         <v>0.14015151515151514</v>
       </c>
-      <c r="K13" s="75">
+      <c r="K13" s="74">
         <f>SUM(F13:J13)/5</f>
         <v>0.24191720998090588</v>
       </c>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="116" t="s">
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="O13" s="117"/>
+      <c r="O13" s="118"/>
       <c r="P13" s="44"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="96">
+      <c r="B14" s="92">
         <v>133125890</v>
       </c>
-      <c r="C14" s="96">
+      <c r="C14" s="92">
         <v>150057077</v>
       </c>
-      <c r="D14" s="96">
+      <c r="D14" s="92">
         <v>174962000</v>
       </c>
-      <c r="E14" s="96">
+      <c r="E14" s="92">
         <v>174873000</v>
       </c>
-      <c r="F14" s="101">
+      <c r="F14" s="97">
         <v>222000000</v>
       </c>
-      <c r="G14" s="96">
+      <c r="G14" s="92">
         <v>230000000</v>
       </c>
-      <c r="H14" s="96">
+      <c r="H14" s="92">
         <v>250400000</v>
       </c>
-      <c r="I14" s="96">
+      <c r="I14" s="92">
         <v>236000000</v>
       </c>
-      <c r="J14" s="96">
+      <c r="J14" s="92">
         <v>264000000</v>
       </c>
-      <c r="K14" s="72" t="s">
+      <c r="K14" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="57" t="s">
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="O14" s="76">
+      <c r="O14" s="75">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.845E-2</v>
       </c>
       <c r="P14" s="44"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="79"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97">
+      <c r="A15" s="78"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93">
         <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
         <v>0.12718177508522199</v>
       </c>
-      <c r="D15" s="97">
+      <c r="D15" s="93">
         <f t="shared" si="2"/>
         <v>0.16596966632903287</v>
       </c>
-      <c r="E15" s="97">
+      <c r="E15" s="93">
         <f t="shared" si="2"/>
         <v>-5.0868188520936108E-4</v>
       </c>
-      <c r="F15" s="102">
+      <c r="F15" s="98">
         <f t="shared" si="2"/>
         <v>0.26949271757218085</v>
       </c>
-      <c r="G15" s="97">
+      <c r="G15" s="93">
         <f t="shared" si="2"/>
         <v>3.6036036036036112E-2</v>
       </c>
-      <c r="H15" s="97">
+      <c r="H15" s="93">
         <f t="shared" si="2"/>
         <v>8.8695652173913064E-2</v>
       </c>
-      <c r="I15" s="97">
+      <c r="I15" s="93">
         <f t="shared" si="2"/>
         <v>-5.7507987220447254E-2</v>
       </c>
-      <c r="J15" s="97">
+      <c r="J15" s="93">
         <f t="shared" si="2"/>
         <v>0.11864406779661008</v>
       </c>
-      <c r="K15" s="75">
+      <c r="K15" s="74">
         <f>SUM(F15:J15)/5</f>
         <v>9.1072097271658575E-2</v>
       </c>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="57" t="s">
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="O15" s="80" cm="1">
+      <c r="O15" s="79" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.52349999999999997</v>
+        <v>0.52590000000000003</v>
       </c>
       <c r="P15" s="44"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="98">
+      <c r="B16" s="94">
         <v>0.1235851724476089</v>
       </c>
-      <c r="C16" s="98">
+      <c r="C16" s="94">
         <v>0.15695544479424234</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D16" s="94">
         <v>0.1355263212127707</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E16" s="94">
         <v>0.29552458422625338</v>
       </c>
-      <c r="F16" s="103"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="57" t="s">
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="O16" s="76">
+      <c r="O16" s="75">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="44"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="70"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="82" t="s">
+      <c r="A17" s="69"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="81" t="s">
         <v>239</v>
       </c>
-      <c r="O17" s="83">
+      <c r="O17" s="82">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.7741820000000008E-2</v>
+        <v>6.7145745000000007E-2</v>
       </c>
       <c r="P17" s="44"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="116" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="117" t="s">
         <v>244</v>
       </c>
-      <c r="O18" s="117"/>
+      <c r="O18" s="118"/>
       <c r="P18" s="44"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16382,246 +16386,246 @@
         <v>1999</v>
       </c>
       <c r="D19" s="120"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="57" t="s">
+      <c r="E19" s="106"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="O19" s="84">
+      <c r="O19" s="83">
         <f>O6+O7</f>
         <v>34749000</v>
       </c>
       <c r="P19" s="44"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="118" t="str" cm="1">
+      <c r="A20" s="119" t="str" cm="1">
         <f t="array" ref="A20">_FV(A1,"Description")</f>
         <v>Qualys, Inc. is a provider of cloud-based information technology (IT), security and compliance solutions. Its cloud-based IT, security and compliance solutions enables organizations to identify security risks to their IT infrastructures, help protect their IT systems and applications from cyber-attacks. The Company delivers its solutions through its Qualys Cloud Platform. The Qualys Cloud Platform leverages a single agent to continuously deliver critical security intelligence while enabling enterprises to automate the full spectrum of vulnerability detection, compliance, and protection for IT systems, workloads and web applications across on premises, endpoints, servers, public and private clouds, containers, and mobile devices.</v>
       </c>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="57" t="s">
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="84" cm="1">
+      <c r="O20" s="83" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>5719373385</v>
+        <v>5587945000</v>
       </c>
       <c r="P20" s="44"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="118"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="57" t="s">
+      <c r="A21" s="119"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="O21" s="84">
+      <c r="O21" s="83">
         <f>O19+O20</f>
-        <v>5754122385</v>
+        <v>5622694000</v>
       </c>
       <c r="P21" s="44"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="118"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="66" t="s">
+      <c r="A22" s="119"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="O22" s="85">
+      <c r="O22" s="84">
         <f>(O19/O21)</f>
-        <v>6.0389747862479642E-3</v>
+        <v>6.1801335800952357E-3</v>
       </c>
       <c r="P22" s="44"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="118"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="82" t="s">
+      <c r="A23" s="119"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="81" t="s">
         <v>247</v>
       </c>
-      <c r="O23" s="86">
+      <c r="O23" s="85">
         <f>O20/O21</f>
-        <v>0.99396102521375207</v>
+        <v>0.99381986641990472</v>
       </c>
       <c r="P23" s="44"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="118"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="109" t="s">
+      <c r="A24" s="119"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="110" t="s">
         <v>248</v>
       </c>
-      <c r="O24" s="110"/>
+      <c r="O24" s="111"/>
       <c r="P24" s="44"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="118"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="111">
+      <c r="A25" s="119"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.7332728857045457E-2</v>
-      </c>
-      <c r="O25" s="112"/>
+        <v>6.6730775326564989E-2</v>
+      </c>
+      <c r="O25" s="113"/>
       <c r="P25" s="44"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
       <c r="O26" s="44"/>
       <c r="P26" s="44"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
       <c r="O27" s="44"/>
       <c r="P27" s="44"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
       <c r="O28" s="44"/>
       <c r="P28" s="44"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
       <c r="O29" s="44"/>
       <c r="P29" s="44"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
       <c r="O30" s="44"/>
       <c r="P30" s="44"/>
     </row>
@@ -16662,526 +16666,526 @@
       <c r="P32" s="44"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="70"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="69"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="70"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="70"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="70"/>
-      <c r="P36" s="70"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="69"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="70"/>
-      <c r="O37" s="70"/>
-      <c r="P37" s="70"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="70"/>
-      <c r="P38" s="70"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="70"/>
-      <c r="P39" s="70"/>
+      <c r="A39" s="69"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="69"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="70"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="70"/>
-      <c r="P40" s="70"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="69"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="70"/>
-      <c r="O41" s="70"/>
-      <c r="P41" s="70"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="70"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="70"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="70"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="70"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="69"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="70"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="70"/>
-      <c r="N44" s="70"/>
-      <c r="O44" s="70"/>
-      <c r="P44" s="70"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="70"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="70"/>
-      <c r="K45" s="70"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="70"/>
-      <c r="N45" s="70"/>
-      <c r="O45" s="70"/>
-      <c r="P45" s="70"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="69"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="70"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="70"/>
-      <c r="N46" s="70"/>
-      <c r="O46" s="70"/>
-      <c r="P46" s="70"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="69"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="70"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70"/>
-      <c r="O47" s="70"/>
-      <c r="P47" s="70"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="69"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="70"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="70"/>
-      <c r="O48" s="70"/>
-      <c r="P48" s="70"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="70"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="70"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="69"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="70"/>
-      <c r="O50" s="70"/>
-      <c r="P50" s="70"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="70"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="70"/>
-      <c r="P51" s="70"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="69"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="70"/>
-      <c r="P52" s="70"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="70"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="70"/>
-      <c r="O53" s="70"/>
-      <c r="P53" s="70"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="69"/>
+      <c r="P53" s="69"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="70"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="70"/>
-      <c r="N54" s="70"/>
-      <c r="O54" s="70"/>
-      <c r="P54" s="70"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="69"/>
+      <c r="P54" s="69"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="70"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="70"/>
-      <c r="N55" s="70"/>
-      <c r="O55" s="70"/>
-      <c r="P55" s="70"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="69"/>
+      <c r="P55" s="69"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="70"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="70"/>
-      <c r="N56" s="70"/>
-      <c r="O56" s="70"/>
-      <c r="P56" s="70"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="69"/>
+      <c r="O56" s="69"/>
+      <c r="P56" s="69"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="70"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="70"/>
-      <c r="N57" s="70"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="70"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="69"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="70"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="70"/>
-      <c r="L58" s="70"/>
-      <c r="M58" s="70"/>
-      <c r="N58" s="70"/>
-      <c r="O58" s="70"/>
-      <c r="P58" s="70"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="69"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="69"/>
+      <c r="O58" s="69"/>
+      <c r="P58" s="69"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="70"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="70"/>
-      <c r="L59" s="70"/>
-      <c r="M59" s="70"/>
-      <c r="N59" s="70"/>
-      <c r="O59" s="70"/>
-      <c r="P59" s="70"/>
+      <c r="A59" s="69"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="69"/>
+      <c r="P59" s="69"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="70"/>
-      <c r="M60" s="70"/>
-      <c r="N60" s="70"/>
-      <c r="O60" s="70"/>
-      <c r="P60" s="70"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="69"/>
+      <c r="O60" s="69"/>
+      <c r="P60" s="69"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="70"/>
-      <c r="I61" s="70"/>
-      <c r="J61" s="70"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="70"/>
-      <c r="M61" s="70"/>
-      <c r="N61" s="70"/>
-      <c r="O61" s="70"/>
-      <c r="P61" s="70"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="69"/>
+      <c r="P61" s="69"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O62" s="44"/>
@@ -17388,9 +17392,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A20:E25"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:E27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:QLYS/explorer/revenue_proj" xr:uid="{7B05FC45-59C4-4A46-803E-AC7497FBAC08}"/>

--- a/Technology/Software/Qualys.xlsx
+++ b/Technology/Software/Qualys.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0106EF62-6B07-BB4B-826E-1FBC785200FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9353D5CB-63A5-4443-8E73-F695C314AA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1563,13 +1563,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1586,7 +1583,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1598,9 +1595,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1728,11 +1722,9 @@
     <v>Powered by Refinitiv</v>
     <v>165.03</v>
     <v>101.1</v>
-    <v>0.52590000000000003</v>
-    <v>0.04</v>
-    <v>2.6289999999999999E-4</v>
-    <v>-0.26</v>
-    <v>-1.7080000000000001E-3</v>
+    <v>0.52180000000000004</v>
+    <v>0.77</v>
+    <v>5.0670000000000003E-3</v>
     <v>USD</v>
     <v>Qualys, Inc. is a provider of cloud-based information technology (IT), security and compliance solutions. Its cloud-based IT, security and compliance solutions enables organizations to identify security risks to their IT infrastructures, help protect their IT systems and applications from cyber-attacks. The Company delivers its solutions through its Qualys Cloud Platform. The Qualys Cloud Platform leverages a single agent to continuously deliver critical security intelligence while enabling enterprises to automate the full spectrum of vulnerability detection, compliance, and protection for IT systems, workloads and web applications across on premises, endpoints, servers, public and private clouds, containers, and mobile devices.</v>
     <v>2140</v>
@@ -1740,25 +1732,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>919 E. Hillsdale Blvd., FOSTER CITY, CA, 94404 US</v>
-    <v>153.435</v>
+    <v>153.69999999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45226.843137753909</v>
+    <v>45232.983477082809</v>
     <v>0</v>
-    <v>150.19999999999999</v>
-    <v>5587945000</v>
+    <v>149.25</v>
+    <v>5606667330</v>
     <v>QUALYS, INC.</v>
     <v>QUALYS, INC.</v>
-    <v>151.99</v>
-    <v>48.178400000000003</v>
-    <v>152.16999999999999</v>
-    <v>152.21</v>
+    <v>153.05000000000001</v>
+    <v>48.339799999999997</v>
     <v>151.94999999999999</v>
+    <v>152.72</v>
     <v>36712070</v>
     <v>QLYS</v>
     <v>QUALYS, INC. (XNAS:QLYS)</v>
-    <v>233625</v>
-    <v>318440</v>
+    <v>669533</v>
+    <v>321523</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -1790,8 +1781,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1812,7 +1801,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1829,7 +1817,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1840,16 +1828,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1915,19 +1900,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1972,9 +1951,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1982,9 +1958,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2370,9 +2343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G170" sqref="G170"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O199" sqref="O199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15689,7 +15662,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15706,7 +15679,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5587945000</v>
+        <v>5606667330</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>201</v>
@@ -15734,7 +15707,7 @@
       </c>
       <c r="I3" s="41">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>6484423015.9256439</v>
+        <v>6484563441.008625</v>
       </c>
       <c r="J3" s="50" t="s">
         <v>205</v>
@@ -15779,7 +15752,7 @@
       </c>
       <c r="I4" s="48">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>5684498743.4842043</v>
+        <v>5684622764.3350773</v>
       </c>
       <c r="J4" s="88" t="s">
         <v>211</v>
@@ -15829,14 +15802,14 @@
       </c>
       <c r="I5" s="48">
         <f>I4+G5-G6</f>
-        <v>5999001743.4842043</v>
+        <v>5999125764.3350773</v>
       </c>
       <c r="J5" s="88" t="s">
         <v>217</v>
       </c>
       <c r="K5" s="107" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>152.21</v>
+        <v>152.72</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>218</v>
@@ -15854,7 +15827,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="53">
         <f>O20/F10</f>
-        <v>10.086543321299638</v>
+        <v>10.120338140794225</v>
       </c>
       <c r="B6" s="86" t="s">
         <v>220</v>
@@ -15882,14 +15855,14 @@
       </c>
       <c r="I6" s="54">
         <f>N25</f>
-        <v>6.6730775326564989E-2</v>
+        <v>6.6729871634644722E-2</v>
       </c>
       <c r="J6" s="89" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="108">
         <f>I5/G4</f>
-        <v>172.51682022975803</v>
+        <v>172.5203867702842</v>
       </c>
       <c r="L6" s="55" t="s">
         <v>224</v>
@@ -15907,14 +15880,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="58">
         <f>O20/F12</f>
-        <v>32.488052325581393</v>
+        <v>32.596903081395347</v>
       </c>
       <c r="B7" s="102" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="59">
         <f>F14/A3</f>
-        <v>3.9728379574244202E-2</v>
+        <v>3.9595714697058727E-2</v>
       </c>
       <c r="D7" s="104" t="s">
         <v>227</v>
@@ -15941,7 +15914,7 @@
       </c>
       <c r="K7" s="105">
         <f>K6/K5-1</f>
-        <v>0.13341318066985086</v>
+        <v>0.1296515634513109</v>
       </c>
       <c r="L7" s="63" t="s">
         <v>230</v>
@@ -16246,7 +16219,7 @@
       </c>
       <c r="O14" s="75">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
       <c r="P14" s="44"/>
     </row>
@@ -16296,7 +16269,7 @@
       </c>
       <c r="O15" s="79" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.52590000000000003</v>
+        <v>0.52180000000000004</v>
       </c>
       <c r="P15" s="44"/>
     </row>
@@ -16351,7 +16324,7 @@
       </c>
       <c r="O17" s="82">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.7145745000000007E-2</v>
+        <v>6.7143450000000007E-2</v>
       </c>
       <c r="P17" s="44"/>
     </row>
@@ -16426,7 +16399,7 @@
       </c>
       <c r="O20" s="83" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>5587945000</v>
+        <v>5606667330</v>
       </c>
       <c r="P20" s="44"/>
     </row>
@@ -16448,7 +16421,7 @@
       </c>
       <c r="O21" s="83">
         <f>O19+O20</f>
-        <v>5622694000</v>
+        <v>5641416330</v>
       </c>
       <c r="P21" s="44"/>
     </row>
@@ -16471,7 +16444,7 @@
       </c>
       <c r="O22" s="84">
         <f>(O19/O21)</f>
-        <v>6.1801335800952357E-3</v>
+        <v>6.1596233937231855E-3</v>
       </c>
       <c r="P22" s="44"/>
     </row>
@@ -16494,7 +16467,7 @@
       </c>
       <c r="O23" s="85">
         <f>O20/O21</f>
-        <v>0.99381986641990472</v>
+        <v>0.99384037660627678</v>
       </c>
       <c r="P23" s="44"/>
     </row>
@@ -16534,7 +16507,7 @@
       <c r="M25" s="69"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.6730775326564989E-2</v>
+        <v>6.6729871634644722E-2</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="44"/>

--- a/Technology/Software/Qualys.xlsx
+++ b/Technology/Software/Qualys.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9353D5CB-63A5-4443-8E73-F695C314AA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03CD160-054E-4944-9B19-1A47C8D35B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="500" windowWidth="36820" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1583,7 +1583,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1720,36 +1720,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>165.03</v>
+    <v>172.83</v>
     <v>101.1</v>
-    <v>0.52180000000000004</v>
-    <v>0.77</v>
-    <v>5.0670000000000003E-3</v>
+    <v>0.5343</v>
+    <v>0.55000000000000004</v>
+    <v>3.2850000000000002E-3</v>
+    <v>-0.96</v>
+    <v>-5.7150000000000005E-3</v>
     <v>USD</v>
     <v>Qualys, Inc. is a provider of cloud-based information technology (IT), security and compliance solutions. Its cloud-based IT, security and compliance solutions enables organizations to identify security risks to their IT infrastructures, help protect their IT systems and applications from cyber-attacks. The Company delivers its solutions through its Qualys Cloud Platform. The Qualys Cloud Platform leverages a single agent to continuously deliver critical security intelligence while enabling enterprises to automate the full spectrum of vulnerability detection, compliance, and protection for IT systems, workloads and web applications across on premises, endpoints, servers, public and private clouds, containers, and mobile devices.</v>
-    <v>2140</v>
+    <v>2155</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>919 E. Hillsdale Blvd., FOSTER CITY, CA, 94404 US</v>
-    <v>153.69999999999999</v>
+    <v>169.66</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45232.983477082809</v>
+    <v>45239.926139548435</v>
     <v>0</v>
-    <v>149.25</v>
-    <v>5606667330</v>
+    <v>166.77500000000001</v>
+    <v>6179221570</v>
     <v>QUALYS, INC.</v>
     <v>QUALYS, INC.</v>
-    <v>153.05000000000001</v>
-    <v>48.339799999999997</v>
-    <v>151.94999999999999</v>
-    <v>152.72</v>
-    <v>36712070</v>
+    <v>168.41</v>
+    <v>45.298200000000001</v>
+    <v>167.43</v>
+    <v>167.98</v>
+    <v>167.02</v>
+    <v>36785460</v>
     <v>QLYS</v>
     <v>QUALYS, INC. (XNAS:QLYS)</v>
-    <v>669533</v>
-    <v>321523</v>
+    <v>291056</v>
+    <v>389812</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -1781,6 +1784,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1801,6 +1806,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1817,7 +1823,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1828,13 +1834,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1900,13 +1909,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1951,6 +1966,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1958,6 +1976,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2343,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O199" sqref="O199"/>
     </sheetView>
   </sheetViews>
@@ -15661,8 +15682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D86BE3-A51C-3D43-A57E-ADC66190151F}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15679,7 +15700,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5606667330</v>
+        <v>6179221570</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>201</v>
@@ -15707,7 +15728,7 @@
       </c>
       <c r="I3" s="41">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>6484563441.008625</v>
+        <v>6632624662.7593374</v>
       </c>
       <c r="J3" s="50" t="s">
         <v>205</v>
@@ -15745,14 +15766,14 @@
       </c>
       <c r="G4" s="47">
         <f>A5*(1+(5*G3))</f>
-        <v>34773430.993538655</v>
+        <v>34842945.51834251</v>
       </c>
       <c r="H4" s="89" t="s">
         <v>210</v>
       </c>
       <c r="I4" s="48">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>5684622764.3350773</v>
+        <v>5815389764.5098333</v>
       </c>
       <c r="J4" s="88" t="s">
         <v>211</v>
@@ -15774,7 +15795,7 @@
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>36712070</v>
+        <v>36785460</v>
       </c>
       <c r="B5" s="86" t="s">
         <v>213</v>
@@ -15802,14 +15823,14 @@
       </c>
       <c r="I5" s="48">
         <f>I4+G5-G6</f>
-        <v>5999125764.3350773</v>
+        <v>6129892764.5098333</v>
       </c>
       <c r="J5" s="88" t="s">
         <v>217</v>
       </c>
       <c r="K5" s="107" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>152.72</v>
+        <v>167.98</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>218</v>
@@ -15827,7 +15848,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="53">
         <f>O20/F10</f>
-        <v>10.120338140794225</v>
+        <v>11.153829548736462</v>
       </c>
       <c r="B6" s="86" t="s">
         <v>220</v>
@@ -15855,14 +15876,14 @@
       </c>
       <c r="I6" s="54">
         <f>N25</f>
-        <v>6.6729871634644722E-2</v>
+        <v>6.5798328528878888E-2</v>
       </c>
       <c r="J6" s="89" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="108">
         <f>I5/G4</f>
-        <v>172.5203867702842</v>
+        <v>175.92923541102027</v>
       </c>
       <c r="L6" s="55" t="s">
         <v>224</v>
@@ -15880,14 +15901,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="58">
         <f>O20/F12</f>
-        <v>32.596903081395347</v>
+        <v>35.925706802325578</v>
       </c>
       <c r="B7" s="102" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="59">
         <f>F14/A3</f>
-        <v>3.9595714697058727E-2</v>
+        <v>3.5926855427519493E-2</v>
       </c>
       <c r="D7" s="104" t="s">
         <v>227</v>
@@ -15914,7 +15935,7 @@
       </c>
       <c r="K7" s="105">
         <f>K6/K5-1</f>
-        <v>0.1296515634513109</v>
+        <v>4.7322511078820684E-2</v>
       </c>
       <c r="L7" s="63" t="s">
         <v>230</v>
@@ -16219,7 +16240,7 @@
       </c>
       <c r="O14" s="75">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
       <c r="P14" s="44"/>
     </row>
@@ -16269,7 +16290,7 @@
       </c>
       <c r="O15" s="79" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.52180000000000004</v>
+        <v>0.5343</v>
       </c>
       <c r="P15" s="44"/>
     </row>
@@ -16324,7 +16345,7 @@
       </c>
       <c r="O17" s="82">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.7143450000000007E-2</v>
+        <v>6.6168347000000002E-2</v>
       </c>
       <c r="P17" s="44"/>
     </row>
@@ -16399,7 +16420,7 @@
       </c>
       <c r="O20" s="83" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>5606667330</v>
+        <v>6179221570</v>
       </c>
       <c r="P20" s="44"/>
     </row>
@@ -16421,7 +16442,7 @@
       </c>
       <c r="O21" s="83">
         <f>O19+O20</f>
-        <v>5641416330</v>
+        <v>6213970570</v>
       </c>
       <c r="P21" s="44"/>
     </row>
@@ -16444,7 +16465,7 @@
       </c>
       <c r="O22" s="84">
         <f>(O19/O21)</f>
-        <v>6.1596233937231855E-3</v>
+        <v>5.592076693726601E-3</v>
       </c>
       <c r="P22" s="44"/>
     </row>
@@ -16467,7 +16488,7 @@
       </c>
       <c r="O23" s="85">
         <f>O20/O21</f>
-        <v>0.99384037660627678</v>
+        <v>0.99440792330627337</v>
       </c>
       <c r="P23" s="44"/>
     </row>
@@ -16507,7 +16528,7 @@
       <c r="M25" s="69"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.6729871634644722E-2</v>
+        <v>6.5798328528878888E-2</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="44"/>

--- a/Technology/Software/Qualys.xlsx
+++ b/Technology/Software/Qualys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03CD160-054E-4944-9B19-1A47C8D35B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A15D4E4-A0D0-1F4B-B8AF-514D19F5A3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="500" windowWidth="36820" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="252">
   <si>
     <t>2010 Y</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -836,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -993,6 +999,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1076,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1121,65 +1133,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1188,23 +1143,93 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,7 +1239,178 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1222,7 +1418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1287,248 +1483,264 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1566,6 +1778,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1583,7 +1796,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1595,6 +1808,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1720,13 +1934,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>172.83</v>
+    <v>188.36500000000001</v>
     <v>101.1</v>
-    <v>0.5343</v>
-    <v>0.55000000000000004</v>
-    <v>3.2850000000000002E-3</v>
-    <v>-0.96</v>
-    <v>-5.7150000000000005E-3</v>
+    <v>0.58199999999999996</v>
+    <v>3.17</v>
+    <v>1.7150000000000002E-2</v>
+    <v>0.24</v>
+    <v>1.2770000000000001E-3</v>
     <v>USD</v>
     <v>Qualys, Inc. is a provider of cloud-based information technology (IT), security and compliance solutions. Its cloud-based IT, security and compliance solutions enables organizations to identify security risks to their IT infrastructures, help protect their IT systems and applications from cyber-attacks. The Company delivers its solutions through its Qualys Cloud Platform. The Qualys Cloud Platform leverages a single agent to continuously deliver critical security intelligence while enabling enterprises to automate the full spectrum of vulnerability detection, compliance, and protection for IT systems, workloads and web applications across on premises, endpoints, servers, public and private clouds, containers, and mobile devices.</v>
     <v>2155</v>
@@ -1734,25 +1948,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>919 E. Hillsdale Blvd., FOSTER CITY, CA, 94404 US</v>
-    <v>169.66</v>
+    <v>188.36500000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45239.926139548435</v>
+    <v>45262.037181145315</v>
     <v>0</v>
-    <v>166.77500000000001</v>
-    <v>6179221570</v>
+    <v>182.64</v>
+    <v>6916034334</v>
     <v>QUALYS, INC.</v>
     <v>QUALYS, INC.</v>
-    <v>168.41</v>
-    <v>45.298200000000001</v>
-    <v>167.43</v>
-    <v>167.98</v>
-    <v>167.02</v>
+    <v>185.04</v>
+    <v>50.008499999999998</v>
+    <v>184.84</v>
+    <v>188.01</v>
+    <v>188.25</v>
     <v>36785460</v>
     <v>QLYS</v>
     <v>QUALYS, INC. (XNAS:QLYS)</v>
-    <v>291056</v>
-    <v>389812</v>
+    <v>371724</v>
+    <v>379238</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2364,9 +2578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O199" sqref="O199"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P126" sqref="P126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10070,7 +10284,10 @@
         <f>(O128/N128)-1</f>
         <v>-1.1482254697286032E-2</v>
       </c>
-      <c r="P129" s="21"/>
+      <c r="P129" s="21">
+        <f>(P128/O128)-1</f>
+        <v>3.2247583461944673E-2</v>
+      </c>
       <c r="Q129" s="21">
         <f>(Q128/P128)-1</f>
         <v>-1.9987409505823117E-2</v>
@@ -15682,8 +15899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D86BE3-A51C-3D43-A57E-ADC66190151F}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15691,1691 +15908,1756 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="114" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="e" vm="1">
+    <row r="1" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="116" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="114" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" cm="1">
+      <c r="A3" s="64" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>6179221570</v>
-      </c>
-      <c r="B3" s="50" t="s">
+        <v>6916034334</v>
+      </c>
+      <c r="B3" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="96">
         <f>Financials!O8*0.01</f>
         <v>0.79520000000000002</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="96">
         <f>SUM(C11:E11)/3</f>
         <v>0.15081804477364327</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="40">
-        <f>SUM(Financials!K129:N129)/4</f>
-        <v>-1.0561316790152903E-2</v>
-      </c>
-      <c r="H3" s="87" t="s">
+      <c r="G3" s="67">
+        <f>AVERAGE(Financials!N129:S129)</f>
+        <v>-9.2412727878429246E-3</v>
+      </c>
+      <c r="H3" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="41">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>6632624662.7593374</v>
-      </c>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="100">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>6535107449.4589367</v>
+      </c>
+      <c r="J3" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="115" t="s">
+      <c r="K3" s="105">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="116"/>
-      <c r="P3" s="44"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45">
+      <c r="A4" s="70">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>314503000</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="97">
         <f>Financials!O17*0.01</f>
         <v>0.27090000000000003</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="97">
         <f>SUM(C13:E13)/3</f>
         <v>0.20582668056839573</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="73">
         <f>A5*(1+(5*G3))</f>
-        <v>34842945.51834251</v>
-      </c>
-      <c r="H4" s="89" t="s">
+        <v>35085737.647568576</v>
+      </c>
+      <c r="H4" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="48">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>5815389764.5098333</v>
-      </c>
-      <c r="J4" s="88" t="s">
+      <c r="I4" s="101">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>5729262545.948184</v>
+      </c>
+      <c r="J4" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="109">
-        <f>(Financials!O172*-1)/Model!A3</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="87" t="s">
-        <v>249</v>
-      </c>
-      <c r="M4" s="44"/>
-      <c r="N4" s="117" t="s">
+      <c r="K4" s="102" cm="1">
+        <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
+        <v>1.7150000000000002E-2</v>
+      </c>
+      <c r="L4" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="38"/>
+      <c r="N4" s="119" t="s">
         <v>212</v>
       </c>
-      <c r="O4" s="118"/>
-      <c r="P4" s="44"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" cm="1">
+      <c r="A5" s="70" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>36785460</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="49">
-        <f>Financials!O34*0.01</f>
-        <v>0.2298</v>
-      </c>
-      <c r="D5" s="86" t="s">
+      <c r="C5" s="97">
+        <f>F14</f>
+        <v>0.31046931407942241</v>
+      </c>
+      <c r="D5" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="46">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="97">
+        <f>SUM(C16:E16)/3</f>
         <v>9.754758650968183E-2</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="73">
         <f>Financials!O56</f>
         <v>349252000</v>
       </c>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="101">
         <f>I4+G5-G6</f>
-        <v>6129892764.5098333</v>
-      </c>
-      <c r="J5" s="88" t="s">
+        <v>6043765545.948184</v>
+      </c>
+      <c r="J5" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="107" cm="1">
+      <c r="K5" s="108" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>167.98</v>
-      </c>
-      <c r="L5" s="50" t="s">
+        <v>188.01</v>
+      </c>
+      <c r="L5" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="51" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="85" t="s">
         <v>219</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="86">
         <f>Financials!O21</f>
         <v>0</v>
       </c>
-      <c r="P5" s="44"/>
+      <c r="P5" s="38"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53">
+      <c r="A6" s="77">
         <f>O20/F10</f>
-        <v>11.153829548736462</v>
-      </c>
-      <c r="B6" s="86" t="s">
+        <v>12.483816487364621</v>
+      </c>
+      <c r="B6" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="46">
-        <f>Financials!O190</f>
-        <v>0.35507207678017633</v>
-      </c>
-      <c r="D6" s="103" t="s">
+      <c r="C6" s="97">
+        <f>F17</f>
+        <v>0.4007220216606498</v>
+      </c>
+      <c r="D6" s="75" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="97">
         <f>Financials!O33/Financials!O126</f>
         <v>0.43489231746673501</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="73">
         <f>Financials!O96+Financials!O105</f>
         <v>34749000</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="104">
         <f>N25</f>
-        <v>6.5798328528878888E-2</v>
-      </c>
-      <c r="J6" s="89" t="s">
+        <v>6.6407123309411523E-2</v>
+      </c>
+      <c r="J6" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="K6" s="108">
+      <c r="K6" s="106">
         <f>I5/G4</f>
-        <v>175.92923541102027</v>
-      </c>
-      <c r="L6" s="55" t="s">
+        <v>172.25704662837589</v>
+      </c>
+      <c r="L6" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="M6" s="44"/>
-      <c r="N6" s="56" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="85" t="s">
         <v>225</v>
       </c>
-      <c r="O6" s="57">
+      <c r="O6" s="86">
         <f>Financials!O96</f>
         <v>11877000</v>
       </c>
-      <c r="P6" s="44"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58">
+      <c r="P6" s="38"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="79">
         <f>O20/F12</f>
-        <v>35.925706802325578</v>
-      </c>
-      <c r="B7" s="102" t="s">
+        <v>40.209501941860466</v>
+      </c>
+      <c r="B7" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="59">
-        <f>F14/A3</f>
-        <v>3.5926855427519493E-2</v>
-      </c>
-      <c r="D7" s="104" t="s">
+      <c r="C7" s="98">
+        <f>F15/A3</f>
+        <v>3.2099320113062935E-2</v>
+      </c>
+      <c r="D7" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="99">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.34165899533946825</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7" s="81">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>0.12543950212621563</v>
       </c>
-      <c r="H7" s="101" t="s">
+      <c r="H7" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="103">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="90" t="s">
+      <c r="J7" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="105">
+      <c r="K7" s="107">
         <f>K6/K5-1</f>
-        <v>4.7322511078820684E-2</v>
-      </c>
-      <c r="L7" s="63" t="s">
+        <v>-8.3787848367768203E-2</v>
+      </c>
+      <c r="L7" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="56" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="O7" s="57">
+      <c r="O7" s="86">
         <f>Financials!O105</f>
         <v>22872000</v>
       </c>
-      <c r="P7" s="44"/>
+      <c r="P7" s="38"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="65" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="O8" s="66">
+      <c r="O8" s="88">
         <f>O5/(O6+O7)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="44"/>
+      <c r="P8" s="38"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
-      <c r="B9" s="91">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48">
         <v>2019</v>
       </c>
-      <c r="C9" s="91">
+      <c r="C9" s="48">
         <v>2020</v>
       </c>
-      <c r="D9" s="91">
+      <c r="D9" s="48">
         <v>2021</v>
       </c>
-      <c r="E9" s="91">
+      <c r="E9" s="49">
         <v>2022</v>
       </c>
-      <c r="F9" s="95">
+      <c r="F9" s="109">
         <v>2023</v>
       </c>
-      <c r="G9" s="96">
+      <c r="G9" s="110">
         <v>2024</v>
       </c>
-      <c r="H9" s="96">
+      <c r="H9" s="110">
         <v>2025</v>
       </c>
-      <c r="I9" s="96">
+      <c r="I9" s="110">
         <v>2026</v>
       </c>
-      <c r="J9" s="96">
+      <c r="J9" s="111">
         <v>2027</v>
       </c>
-      <c r="K9" s="68"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="56" t="s">
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="85" t="s">
         <v>232</v>
       </c>
-      <c r="O9" s="57">
+      <c r="O9" s="86">
         <f>Financials!O25</f>
         <v>30798000</v>
       </c>
-      <c r="P9" s="44"/>
+      <c r="P9" s="38"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="92">
+      <c r="B10" s="51">
         <v>321607000</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="51">
         <v>362963000</v>
       </c>
-      <c r="D10" s="92">
+      <c r="D10" s="51">
         <v>411172000</v>
       </c>
-      <c r="E10" s="92">
+      <c r="E10" s="52">
         <v>489723000</v>
       </c>
-      <c r="F10" s="97">
+      <c r="F10" s="51">
         <v>554000000</v>
       </c>
-      <c r="G10" s="92">
+      <c r="G10" s="51">
         <v>621500000</v>
       </c>
-      <c r="H10" s="92">
+      <c r="H10" s="51">
         <v>690000000</v>
       </c>
-      <c r="I10" s="92">
+      <c r="I10" s="51">
         <v>783400000</v>
       </c>
-      <c r="J10" s="92">
+      <c r="J10" s="52">
         <v>866000000</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="N10" s="56" t="s">
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="85" t="s">
         <v>235</v>
       </c>
-      <c r="O10" s="57">
+      <c r="O10" s="86">
         <f>Financials!O24</f>
         <v>151271000</v>
       </c>
-      <c r="P10" s="44"/>
+      <c r="P10" s="38"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93">
+      <c r="A11" s="54"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.12859172841387156</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="41">
         <f t="shared" si="0"/>
         <v>0.13282070073258145</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="41">
         <f t="shared" si="0"/>
         <v>0.19104170517447683</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="42">
         <f t="shared" si="0"/>
         <v>0.13125174843738185</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="41">
         <f t="shared" si="0"/>
         <v>0.12184115523465699</v>
       </c>
-      <c r="H11" s="93">
+      <c r="H11" s="41">
         <f t="shared" si="0"/>
         <v>0.11021721641190663</v>
       </c>
-      <c r="I11" s="93">
+      <c r="I11" s="41">
         <f t="shared" si="0"/>
         <v>0.1353623188405797</v>
       </c>
-      <c r="J11" s="93">
+      <c r="J11" s="55">
         <f t="shared" si="0"/>
         <v>0.10543783507786575</v>
       </c>
-      <c r="K11" s="74">
+      <c r="K11" s="55">
         <f>SUM(F11:J11)/5</f>
         <v>0.12082205480047818</v>
       </c>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="56" t="s">
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="85" t="s">
         <v>236</v>
       </c>
-      <c r="O11" s="75">
+      <c r="O11" s="89">
         <f>O9/O10</f>
         <v>0.20359487277799446</v>
       </c>
-      <c r="P11" s="44"/>
+      <c r="P11" s="38"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="92">
+      <c r="B12" s="51">
         <v>69336000</v>
       </c>
-      <c r="C12" s="92">
+      <c r="C12" s="51">
         <v>91572000</v>
       </c>
-      <c r="D12" s="92">
+      <c r="D12" s="51">
         <v>70960000</v>
       </c>
-      <c r="E12" s="92">
+      <c r="E12" s="51">
         <v>107992000</v>
       </c>
-      <c r="F12" s="97">
+      <c r="F12" s="56">
         <v>172000000</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G12" s="51">
         <v>184000000</v>
       </c>
-      <c r="H12" s="92">
+      <c r="H12" s="51">
         <v>200000000</v>
       </c>
-      <c r="I12" s="92">
+      <c r="I12" s="51">
         <v>264000000</v>
       </c>
-      <c r="J12" s="92">
+      <c r="J12" s="52">
         <v>301000000</v>
       </c>
-      <c r="K12" s="71" t="s">
+      <c r="K12" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="76" t="s">
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="O12" s="77">
+      <c r="O12" s="89">
         <f>O8*(1-O11)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="44"/>
+      <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="72"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93">
+      <c r="A13" s="54"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.32069920387677397</v>
       </c>
-      <c r="D13" s="93">
+      <c r="D13" s="41">
         <f t="shared" si="1"/>
         <v>-0.22509063905997462</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E13" s="41">
         <f t="shared" si="1"/>
         <v>0.52187147688838786</v>
       </c>
-      <c r="F13" s="98">
+      <c r="F13" s="42">
         <f t="shared" si="1"/>
         <v>0.59271057115341885</v>
       </c>
-      <c r="G13" s="93">
+      <c r="G13" s="41">
         <f t="shared" si="1"/>
         <v>6.9767441860465018E-2</v>
       </c>
-      <c r="H13" s="93">
+      <c r="H13" s="41">
         <f t="shared" si="1"/>
         <v>8.6956521739130377E-2</v>
       </c>
-      <c r="I13" s="93">
+      <c r="I13" s="41">
         <f t="shared" si="1"/>
         <v>0.32000000000000006</v>
       </c>
-      <c r="J13" s="93">
+      <c r="J13" s="55">
         <f t="shared" si="1"/>
         <v>0.14015151515151514</v>
       </c>
-      <c r="K13" s="74">
+      <c r="K13" s="55">
         <f>SUM(F13:J13)/5</f>
         <v>0.24191720998090588</v>
       </c>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="117" t="s">
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="119" t="s">
         <v>239</v>
       </c>
-      <c r="O13" s="118"/>
-      <c r="P13" s="44"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="38"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="44">
+        <f>B12/B10</f>
+        <v>0.21559232230641745</v>
+      </c>
+      <c r="C14" s="44">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.25229017833773693</v>
+      </c>
+      <c r="D14" s="44">
+        <f t="shared" si="2"/>
+        <v>0.17257984493107506</v>
+      </c>
+      <c r="E14" s="44">
+        <f t="shared" si="2"/>
+        <v>0.22051649606001761</v>
+      </c>
+      <c r="F14" s="45">
+        <f t="shared" si="2"/>
+        <v>0.31046931407942241</v>
+      </c>
+      <c r="G14" s="44">
+        <f t="shared" si="2"/>
+        <v>0.29605792437650846</v>
+      </c>
+      <c r="H14" s="44">
+        <f t="shared" si="2"/>
+        <v>0.28985507246376813</v>
+      </c>
+      <c r="I14" s="44">
+        <f t="shared" si="2"/>
+        <v>0.33699259637477663</v>
+      </c>
+      <c r="J14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.34757505773672054</v>
+      </c>
+      <c r="K14" s="46"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="85" t="s">
+        <v>241</v>
+      </c>
+      <c r="O14" s="89">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="38"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="92">
+      <c r="B15" s="51">
         <v>133125890</v>
       </c>
-      <c r="C14" s="92">
+      <c r="C15" s="51">
         <v>150057077</v>
       </c>
-      <c r="D14" s="92">
+      <c r="D15" s="51">
         <v>174962000</v>
       </c>
-      <c r="E14" s="92">
+      <c r="E15" s="51">
         <v>174873000</v>
       </c>
-      <c r="F14" s="97">
+      <c r="F15" s="56">
         <v>222000000</v>
       </c>
-      <c r="G14" s="92">
+      <c r="G15" s="51">
         <v>230000000</v>
       </c>
-      <c r="H14" s="92">
+      <c r="H15" s="51">
         <v>250400000</v>
       </c>
-      <c r="I14" s="92">
+      <c r="I15" s="51">
         <v>236000000</v>
       </c>
-      <c r="J14" s="92">
+      <c r="J15" s="52">
         <v>264000000</v>
       </c>
-      <c r="K14" s="71" t="s">
+      <c r="K15" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="56" t="s">
-        <v>241</v>
-      </c>
-      <c r="O14" s="75">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="44"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="78"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="85" t="s">
+        <v>242</v>
+      </c>
+      <c r="O15" s="90" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="P15" s="38"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="58"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.12718177508522199</v>
       </c>
-      <c r="D15" s="93">
-        <f t="shared" si="2"/>
+      <c r="D16" s="41">
+        <f t="shared" si="3"/>
         <v>0.16596966632903287</v>
       </c>
-      <c r="E15" s="93">
-        <f t="shared" si="2"/>
+      <c r="E16" s="41">
+        <f t="shared" si="3"/>
         <v>-5.0868188520936108E-4</v>
       </c>
-      <c r="F15" s="98">
-        <f t="shared" si="2"/>
+      <c r="F16" s="42">
+        <f t="shared" si="3"/>
         <v>0.26949271757218085</v>
       </c>
-      <c r="G15" s="93">
-        <f t="shared" si="2"/>
+      <c r="G16" s="41">
+        <f t="shared" si="3"/>
         <v>3.6036036036036112E-2</v>
       </c>
-      <c r="H15" s="93">
-        <f t="shared" si="2"/>
+      <c r="H16" s="41">
+        <f t="shared" si="3"/>
         <v>8.8695652173913064E-2</v>
       </c>
-      <c r="I15" s="93">
-        <f t="shared" si="2"/>
+      <c r="I16" s="41">
+        <f t="shared" si="3"/>
         <v>-5.7507987220447254E-2</v>
       </c>
-      <c r="J15" s="93">
-        <f t="shared" si="2"/>
+      <c r="J16" s="55">
+        <f t="shared" si="3"/>
         <v>0.11864406779661008</v>
       </c>
-      <c r="K15" s="74">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="55">
+        <f>SUM(F16:J16)/5</f>
         <v>9.1072097271658575E-2</v>
       </c>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="O15" s="79" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.5343</v>
-      </c>
-      <c r="P15" s="44"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="70" t="s">
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="85" t="s">
+        <v>243</v>
+      </c>
+      <c r="O16" s="89">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="38"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="44">
+        <f>B15/B10</f>
+        <v>0.41393965305481534</v>
+      </c>
+      <c r="C17" s="44">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.41342251689566156</v>
+      </c>
+      <c r="D17" s="44">
+        <f t="shared" si="4"/>
+        <v>0.42552022024846048</v>
+      </c>
+      <c r="E17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.35708553610918825</v>
+      </c>
+      <c r="F17" s="44">
+        <f t="shared" si="4"/>
+        <v>0.4007220216606498</v>
+      </c>
+      <c r="G17" s="44">
+        <f t="shared" si="4"/>
+        <v>0.37007240547063558</v>
+      </c>
+      <c r="H17" s="44">
+        <f t="shared" si="4"/>
+        <v>0.36289855072463767</v>
+      </c>
+      <c r="I17" s="44">
+        <f t="shared" si="4"/>
+        <v>0.30125095736533058</v>
+      </c>
+      <c r="J17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.30484988452655887</v>
+      </c>
+      <c r="K17" s="46"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="91" t="s">
+        <v>239</v>
+      </c>
+      <c r="O17" s="92">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>6.674078E-2</v>
+      </c>
+      <c r="P17" s="38"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="94">
+      <c r="B18" s="60">
         <v>0.1235851724476089</v>
       </c>
-      <c r="C16" s="94">
+      <c r="C18" s="60">
         <v>0.15695544479424234</v>
       </c>
-      <c r="D16" s="94">
+      <c r="D18" s="60">
         <v>0.1355263212127707</v>
       </c>
-      <c r="E16" s="94">
+      <c r="E18" s="60">
         <v>0.29552458422625338</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="O16" s="75">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="44"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="81" t="s">
-        <v>239</v>
-      </c>
-      <c r="O17" s="82">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.6168347000000002E-2</v>
-      </c>
-      <c r="P17" s="44"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="117" t="s">
+      <c r="F18" s="61"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="119" t="s">
         <v>244</v>
       </c>
-      <c r="O18" s="118"/>
-      <c r="P18" s="44"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="38"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="119" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="B19" s="119"/>
-      <c r="C19" s="120" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>1999</v>
-      </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="56" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="O19" s="83">
+      <c r="O19" s="93">
         <f>O6+O7</f>
         <v>34749000</v>
       </c>
-      <c r="P19" s="44"/>
+      <c r="P19" s="38"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="119" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="85" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="93" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>6916034334</v>
+      </c>
+      <c r="P20" s="38"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="123" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1999</v>
+      </c>
+      <c r="E21" s="124"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="85" t="s">
+        <v>245</v>
+      </c>
+      <c r="O21" s="93">
+        <f>O19+O20</f>
+        <v>6950783334</v>
+      </c>
+      <c r="P21" s="38"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="121" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Qualys, Inc. is a provider of cloud-based information technology (IT), security and compliance solutions. Its cloud-based IT, security and compliance solutions enables organizations to identify security risks to their IT infrastructures, help protect their IT systems and applications from cyber-attacks. The Company delivers its solutions through its Qualys Cloud Platform. The Qualys Cloud Platform leverages a single agent to continuously deliver critical security intelligence while enabling enterprises to automate the full spectrum of vulnerability detection, compliance, and protection for IT systems, workloads and web applications across on premises, endpoints, servers, public and private clouds, containers, and mobile devices.</v>
       </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="83" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>6179221570</v>
-      </c>
-      <c r="P20" s="44"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="119"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="O21" s="83">
-        <f>O19+O20</f>
-        <v>6213970570</v>
-      </c>
-      <c r="P21" s="44"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="119"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="65" t="s">
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="O22" s="84">
+      <c r="O22" s="94">
         <f>(O19/O21)</f>
-        <v>5.592076693726601E-3</v>
-      </c>
-      <c r="P22" s="44"/>
+        <v>4.9992926451935355E-3</v>
+      </c>
+      <c r="P22" s="38"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="119"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="81" t="s">
+      <c r="A23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="O23" s="85">
+      <c r="O23" s="95">
         <f>O20/O21</f>
-        <v>0.99440792330627337</v>
-      </c>
-      <c r="P23" s="44"/>
+        <v>0.9950007073548065</v>
+      </c>
+      <c r="P23" s="38"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="119"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="110" t="s">
+      <c r="A24" s="121"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="112" t="s">
         <v>248</v>
       </c>
-      <c r="O24" s="111"/>
-      <c r="P24" s="44"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="38"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="119"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="112">
+      <c r="A25" s="121"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.5798328528878888E-2</v>
-      </c>
-      <c r="O25" s="113"/>
-      <c r="P25" s="44"/>
+        <v>6.6407123309411523E-2</v>
+      </c>
+      <c r="O25" s="115"/>
+      <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="119"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="119"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
+      <c r="A28" s="121"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="69"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
+      <c r="A29" s="122"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="69"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
+      <c r="A30" s="122"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="69"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="69"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="69"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="69"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="69"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="69"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="69"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="69"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="69"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="69"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="69"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="69"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="69"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="69"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="69"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="69"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="69"/>
-      <c r="O43" s="69"/>
-      <c r="P43" s="69"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="69"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="69"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="69"/>
-      <c r="O44" s="69"/>
-      <c r="P44" s="69"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="69"/>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="69"/>
-      <c r="M45" s="69"/>
-      <c r="N45" s="69"/>
-      <c r="O45" s="69"/>
-      <c r="P45" s="69"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="69"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="69"/>
-      <c r="M46" s="69"/>
-      <c r="N46" s="69"/>
-      <c r="O46" s="69"/>
-      <c r="P46" s="69"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="69"/>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="69"/>
-      <c r="O47" s="69"/>
-      <c r="P47" s="69"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="69"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="69"/>
-      <c r="N48" s="69"/>
-      <c r="O48" s="69"/>
-      <c r="P48" s="69"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="69"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="69"/>
-      <c r="M49" s="69"/>
-      <c r="N49" s="69"/>
-      <c r="O49" s="69"/>
-      <c r="P49" s="69"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="69"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="69"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="69"/>
-      <c r="N50" s="69"/>
-      <c r="O50" s="69"/>
-      <c r="P50" s="69"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="69"/>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="69"/>
-      <c r="N51" s="69"/>
-      <c r="O51" s="69"/>
-      <c r="P51" s="69"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="69"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="69"/>
-      <c r="N52" s="69"/>
-      <c r="O52" s="69"/>
-      <c r="P52" s="69"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="69"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="69"/>
-      <c r="M53" s="69"/>
-      <c r="N53" s="69"/>
-      <c r="O53" s="69"/>
-      <c r="P53" s="69"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="69"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="69"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="69"/>
-      <c r="L54" s="69"/>
-      <c r="M54" s="69"/>
-      <c r="N54" s="69"/>
-      <c r="O54" s="69"/>
-      <c r="P54" s="69"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="69"/>
-      <c r="B55" s="69"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="69"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="69"/>
-      <c r="N55" s="69"/>
-      <c r="O55" s="69"/>
-      <c r="P55" s="69"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="69"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="69"/>
-      <c r="N56" s="69"/>
-      <c r="O56" s="69"/>
-      <c r="P56" s="69"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="69"/>
-      <c r="B57" s="69"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="69"/>
-      <c r="N57" s="69"/>
-      <c r="O57" s="69"/>
-      <c r="P57" s="69"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="69"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="69"/>
-      <c r="M58" s="69"/>
-      <c r="N58" s="69"/>
-      <c r="O58" s="69"/>
-      <c r="P58" s="69"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="69"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="69"/>
-      <c r="M59" s="69"/>
-      <c r="N59" s="69"/>
-      <c r="O59" s="69"/>
-      <c r="P59" s="69"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="69"/>
-      <c r="B60" s="69"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="69"/>
-      <c r="L60" s="69"/>
-      <c r="M60" s="69"/>
-      <c r="N60" s="69"/>
-      <c r="O60" s="69"/>
-      <c r="P60" s="69"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="69"/>
-      <c r="B61" s="69"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="69"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="69"/>
-      <c r="L61" s="69"/>
-      <c r="M61" s="69"/>
-      <c r="N61" s="69"/>
-      <c r="O61" s="69"/>
-      <c r="P61" s="69"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="44"/>
-      <c r="P62" s="44"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="44"/>
-      <c r="P63" s="44"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="44"/>
-      <c r="P64" s="44"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="44"/>
-      <c r="P65" s="44"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="44"/>
-      <c r="P66" s="44"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="44"/>
-      <c r="P67" s="44"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="44"/>
-      <c r="P68" s="44"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="44"/>
-      <c r="P69" s="44"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="44"/>
-      <c r="P70" s="44"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="44"/>
-      <c r="P71" s="44"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="44"/>
-      <c r="P72" s="44"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="44"/>
-      <c r="P73" s="44"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="44"/>
-      <c r="P74" s="44"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="44"/>
-      <c r="P75" s="44"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="44"/>
-      <c r="P76" s="44"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="44"/>
-      <c r="P77" s="44"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="44"/>
-      <c r="P78" s="44"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="44"/>
-      <c r="P79" s="44"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="44"/>
-      <c r="P80" s="44"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="44"/>
-      <c r="P81" s="44"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="44"/>
-      <c r="P82" s="44"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="44"/>
-      <c r="P83" s="44"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="44"/>
-      <c r="P84" s="44"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="44"/>
-      <c r="P85" s="44"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="44"/>
-      <c r="P86" s="44"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="44"/>
-      <c r="P87" s="44"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="44"/>
-      <c r="P88" s="44"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="44"/>
-      <c r="P89" s="44"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="44"/>
-      <c r="P90" s="44"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="44"/>
-      <c r="P91" s="44"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="44"/>
-      <c r="P92" s="44"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="44"/>
-      <c r="P93" s="44"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="44"/>
-      <c r="P94" s="44"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="44"/>
-      <c r="P95" s="44"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="44"/>
-      <c r="P96" s="44"/>
+      <c r="O96" s="38"/>
+      <c r="P96" s="38"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="44"/>
-      <c r="P97" s="44"/>
+      <c r="O97" s="38"/>
+      <c r="P97" s="38"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="44"/>
-      <c r="P98" s="44"/>
+      <c r="O98" s="38"/>
+      <c r="P98" s="38"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="44"/>
-      <c r="P99" s="44"/>
+      <c r="O99" s="38"/>
+      <c r="P99" s="38"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="44"/>
-      <c r="P100" s="44"/>
+      <c r="O100" s="38"/>
+      <c r="P100" s="38"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="44"/>
-      <c r="P101" s="44"/>
+      <c r="O101" s="38"/>
+      <c r="P101" s="38"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="44"/>
-      <c r="P102" s="44"/>
+      <c r="O102" s="38"/>
+      <c r="P102" s="38"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="44"/>
-      <c r="P103" s="44"/>
+      <c r="O103" s="38"/>
+      <c r="P103" s="38"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="44"/>
-      <c r="P104" s="44"/>
+      <c r="O104" s="38"/>
+      <c r="P104" s="38"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="44"/>
-      <c r="P105" s="44"/>
+      <c r="O105" s="38"/>
+      <c r="P105" s="38"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="44"/>
-      <c r="P106" s="44"/>
+      <c r="O106" s="38"/>
+      <c r="P106" s="38"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="44"/>
-      <c r="P107" s="44"/>
+      <c r="O107" s="38"/>
+      <c r="P107" s="38"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="44"/>
-      <c r="P108" s="44"/>
+      <c r="O108" s="38"/>
+      <c r="P108" s="38"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="44"/>
-      <c r="P109" s="44"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="44"/>
-      <c r="P110" s="44"/>
+      <c r="O110" s="38"/>
+      <c r="P110" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -17386,9 +17668,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:E27"/>
+    <mergeCell ref="A22:E28"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:QLYS/explorer/revenue_proj" xr:uid="{7B05FC45-59C4-4A46-803E-AC7497FBAC08}"/>

--- a/Technology/Software/Qualys.xlsx
+++ b/Technology/Software/Qualys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A15D4E4-A0D0-1F4B-B8AF-514D19F5A3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EB5AD3-3CF9-E24F-A5E1-DB1F02DCEB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1703,6 +1703,9 @@
     <xf numFmtId="0" fontId="22" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1732,9 +1735,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
@@ -1777,6 +1777,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1796,7 +1798,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1809,6 +1811,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1934,13 +1938,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>188.36500000000001</v>
+    <v>189.01</v>
     <v>101.1</v>
-    <v>0.58199999999999996</v>
-    <v>3.17</v>
-    <v>1.7150000000000002E-2</v>
-    <v>0.24</v>
-    <v>1.2770000000000001E-3</v>
+    <v>0.58230000000000004</v>
+    <v>1.79</v>
+    <v>9.5960000000000004E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Qualys, Inc. is a provider of cloud-based information technology (IT), security and compliance solutions. Its cloud-based IT, security and compliance solutions enables organizations to identify security risks to their IT infrastructures, help protect their IT systems and applications from cyber-attacks. The Company delivers its solutions through its Qualys Cloud Platform. The Qualys Cloud Platform leverages a single agent to continuously deliver critical security intelligence while enabling enterprises to automate the full spectrum of vulnerability detection, compliance, and protection for IT systems, workloads and web applications across on premises, endpoints, servers, public and private clouds, containers, and mobile devices.</v>
     <v>2155</v>
@@ -1948,25 +1952,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>919 E. Hillsdale Blvd., FOSTER CITY, CA, 94404 US</v>
-    <v>188.36500000000001</v>
+    <v>189.01</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.037181145315</v>
+    <v>45268.89511506875</v>
     <v>0</v>
-    <v>182.64</v>
-    <v>6916034334</v>
+    <v>185.55</v>
+    <v>6927437827</v>
     <v>QUALYS, INC.</v>
     <v>QUALYS, INC.</v>
-    <v>185.04</v>
-    <v>50.008499999999998</v>
-    <v>184.84</v>
-    <v>188.01</v>
-    <v>188.25</v>
+    <v>185.55</v>
+    <v>50.465800000000002</v>
+    <v>186.53</v>
+    <v>188.32</v>
+    <v>188.32</v>
     <v>36785460</v>
     <v>QLYS</v>
     <v>QUALYS, INC. (XNAS:QLYS)</v>
-    <v>371724</v>
-    <v>379238</v>
+    <v>278928</v>
+    <v>399015</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -15900,7 +15904,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15908,16 +15912,16 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="e" vm="1">
+    <row r="1" spans="1:16" s="117" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:16" s="117" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>6916034334</v>
+        <v>6927437827</v>
       </c>
       <c r="B3" s="65" t="s">
         <v>201</v>
@@ -15945,7 +15949,7 @@
       </c>
       <c r="I3" s="100">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>6535107449.4589367</v>
+        <v>6632910209.1371527</v>
       </c>
       <c r="J3" s="68" t="s">
         <v>205</v>
@@ -15958,10 +15962,10 @@
         <v>249</v>
       </c>
       <c r="M3" s="38"/>
-      <c r="N3" s="117" t="s">
+      <c r="N3" s="118" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="118"/>
+      <c r="O3" s="119"/>
       <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -15995,23 +15999,23 @@
       </c>
       <c r="I4" s="101">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>5729262545.948184</v>
+        <v>5815641961.6564255</v>
       </c>
       <c r="J4" s="72" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="102" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.7150000000000002E-2</v>
+        <v>9.5960000000000004E-3</v>
       </c>
       <c r="L4" s="74" t="s">
         <v>251</v>
       </c>
       <c r="M4" s="38"/>
-      <c r="N4" s="119" t="s">
+      <c r="N4" s="120" t="s">
         <v>212</v>
       </c>
-      <c r="O4" s="120"/>
+      <c r="O4" s="121"/>
       <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16045,14 +16049,14 @@
       </c>
       <c r="I5" s="101">
         <f>I4+G5-G6</f>
-        <v>6043765545.948184</v>
+        <v>6130144961.6564255</v>
       </c>
       <c r="J5" s="72" t="s">
         <v>217</v>
       </c>
       <c r="K5" s="108" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>188.01</v>
+        <v>188.32</v>
       </c>
       <c r="L5" s="76" t="s">
         <v>218</v>
@@ -16070,7 +16074,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="77">
         <f>O20/F10</f>
-        <v>12.483816487364621</v>
+        <v>12.504400409747292</v>
       </c>
       <c r="B6" s="71" t="s">
         <v>220</v>
@@ -16098,14 +16102,14 @@
       </c>
       <c r="I6" s="104">
         <f>N25</f>
-        <v>6.6407123309411523E-2</v>
+        <v>6.5796572163337216E-2</v>
       </c>
       <c r="J6" s="72" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="106">
         <f>I5/G4</f>
-        <v>172.25704662837589</v>
+        <v>174.71899901985506</v>
       </c>
       <c r="L6" s="78" t="s">
         <v>224</v>
@@ -16123,14 +16127,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79">
         <f>O20/F12</f>
-        <v>40.209501941860466</v>
+        <v>40.275801319767439</v>
       </c>
       <c r="B7" s="80" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="98">
         <f>F15/A3</f>
-        <v>3.2099320113062935E-2</v>
+        <v>3.2046480321302202E-2</v>
       </c>
       <c r="D7" s="80" t="s">
         <v>227</v>
@@ -16157,7 +16161,7 @@
       </c>
       <c r="K7" s="107">
         <f>K6/K5-1</f>
-        <v>-8.3787848367768203E-2</v>
+        <v>-7.222281743917236E-2</v>
       </c>
       <c r="L7" s="84" t="s">
         <v>230</v>
@@ -16417,10 +16421,10 @@
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
-      <c r="N13" s="119" t="s">
+      <c r="N13" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="O13" s="120"/>
+      <c r="O13" s="121"/>
       <c r="P13" s="38"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16471,7 +16475,7 @@
       </c>
       <c r="O14" s="89">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="38"/>
     </row>
@@ -16516,7 +16520,7 @@
       </c>
       <c r="O15" s="90" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.58199999999999996</v>
+        <v>0.58230000000000004</v>
       </c>
       <c r="P15" s="38"/>
     </row>
@@ -16617,7 +16621,7 @@
       </c>
       <c r="O17" s="92">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.674078E-2</v>
+        <v>6.6126616999999999E-2</v>
       </c>
       <c r="P17" s="38"/>
     </row>
@@ -16645,10 +16649,10 @@
       <c r="K18" s="63"/>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
-      <c r="N18" s="119" t="s">
+      <c r="N18" s="120" t="s">
         <v>244</v>
       </c>
-      <c r="O18" s="120"/>
+      <c r="O18" s="121"/>
       <c r="P18" s="38"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16693,7 +16697,7 @@
       </c>
       <c r="O20" s="93" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>6916034334</v>
+        <v>6927437827</v>
       </c>
       <c r="P20" s="38"/>
     </row>
@@ -16721,19 +16725,19 @@
       </c>
       <c r="O21" s="93">
         <f>O19+O20</f>
-        <v>6950783334</v>
+        <v>6962186827</v>
       </c>
       <c r="P21" s="38"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="121" t="str" cm="1">
+      <c r="A22" s="122" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Qualys, Inc. is a provider of cloud-based information technology (IT), security and compliance solutions. Its cloud-based IT, security and compliance solutions enables organizations to identify security risks to their IT infrastructures, help protect their IT systems and applications from cyber-attacks. The Company delivers its solutions through its Qualys Cloud Platform. The Qualys Cloud Platform leverages a single agent to continuously deliver critical security intelligence while enabling enterprises to automate the full spectrum of vulnerability detection, compliance, and protection for IT systems, workloads and web applications across on premises, endpoints, servers, public and private clouds, containers, and mobile devices.</v>
       </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
@@ -16747,16 +16751,16 @@
       </c>
       <c r="O22" s="94">
         <f>(O19/O21)</f>
-        <v>4.9992926451935355E-3</v>
+        <v>4.9911042124351195E-3</v>
       </c>
       <c r="P22" s="38"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="121"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
+      <c r="A23" s="122"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
@@ -16770,16 +16774,16 @@
       </c>
       <c r="O23" s="95">
         <f>O20/O21</f>
-        <v>0.9950007073548065</v>
+        <v>0.99500889578756491</v>
       </c>
       <c r="P23" s="38"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="121"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
@@ -16788,18 +16792,18 @@
       <c r="K24" s="40"/>
       <c r="L24" s="40"/>
       <c r="M24" s="40"/>
-      <c r="N24" s="112" t="s">
+      <c r="N24" s="113" t="s">
         <v>248</v>
       </c>
-      <c r="O24" s="113"/>
+      <c r="O24" s="114"/>
       <c r="P24" s="38"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="121"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
+      <c r="A25" s="122"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
@@ -16808,19 +16812,19 @@
       <c r="K25" s="40"/>
       <c r="L25" s="40"/>
       <c r="M25" s="40"/>
-      <c r="N25" s="114">
+      <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.6407123309411523E-2</v>
-      </c>
-      <c r="O25" s="115"/>
+        <v>6.5796572163337216E-2</v>
+      </c>
+      <c r="O25" s="116"/>
       <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="121"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
+      <c r="A26" s="122"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
@@ -16834,11 +16838,11 @@
       <c r="P26" s="38"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="121"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
@@ -16852,11 +16856,11 @@
       <c r="P27" s="38"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="121"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
+      <c r="A28" s="122"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
@@ -16870,11 +16874,11 @@
       <c r="P28" s="38"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="122"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
+      <c r="A29" s="112"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
@@ -16888,11 +16892,11 @@
       <c r="P29" s="38"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="122"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
